--- a/biology/Médecine/Liste_de_scientifiques_et_inventeurs_afro-américains/Liste_de_scientifiques_et_inventeurs_afro-américains.xlsx
+++ b/biology/Médecine/Liste_de_scientifiques_et_inventeurs_afro-américains/Liste_de_scientifiques_et_inventeurs_afro-américains.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_de_scientifiques_et_inventeurs_afro-am%C3%A9ricains</t>
+          <t>Liste_de_scientifiques_et_inventeurs_afro-américains</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette page a pour but de lister les scientifiques, inventeurs et inventrices Afro-Américains[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette page a pour but de lister les scientifiques, inventeurs et inventrices Afro-Américains,.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_de_scientifiques_et_inventeurs_afro-am%C3%A9ricains</t>
+          <t>Liste_de_scientifiques_et_inventeurs_afro-américains</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>A
-Nelson Adams (en)
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Nelson Adams (en)
 Rexford S. Ahima (en)
 George Edward Alcorn Jr.
 Archie Alexander (en)
@@ -522,9 +539,43 @@
 Harold Amos (en)
 Michelle Amos (en)
 Gloria Long Anderson
-Oluwatoyin Asojo
-B
-June Bacon-Bercey
+Oluwatoyin Asojo</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Liste_de_scientifiques_et_inventeurs_afro-américains</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_scientifiques_et_inventeurs_afro-am%C3%A9ricains</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste alphabétique des scientifiques et inventeurs afro-américaines et afro-américains.</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>June Bacon-Bercey
 Leonard C. Bailey (en)
 Charles S.L. Baker (en)
 Alice Ball
@@ -559,9 +610,43 @@
 Henry L. Brown (en)
 Marie Van Brittan Brown (en)
 Joy Buolamwini
-Marie Van Brittan Brown (en)
-C
-George Robert Carruthers
+Marie Van Brittan Brown (en)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_de_scientifiques_et_inventeurs_afro-américains</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_scientifiques_et_inventeurs_afro-am%C3%A9ricains</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste alphabétique des scientifiques et inventeurs afro-américaines et afro-américains.</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>George Robert Carruthers
 George Washington Carver
 Etosha Cave (en)
 Emmett Chappelle (en)
@@ -569,9 +654,43 @@
 Carla Cotwright-Williams
 Alfred L. Cralle (en)
 David Crosthwait (en)
-George Crum
-D
-Marie Maynard Daly
+George Crum</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_de_scientifiques_et_inventeurs_afro-américains</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_scientifiques_et_inventeurs_afro-am%C3%A9ricains</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste alphabétique des scientifiques et inventeurs afro-américaines et afro-américains.</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Marie Maynard Daly
 Christine Darden
 Sharon K. Davis (en)
 William Conan Davis (en)
@@ -579,9 +698,43 @@
 Mark Dean
 James Derham
 Paulette Dillard (en)
-Charles Drew
-E
-Annie Easley
+Charles Drew</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_de_scientifiques_et_inventeurs_afro-américains</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_scientifiques_et_inventeurs_afro-am%C3%A9ricains</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste alphabétique des scientifiques et inventeurs afro-américaines et afro-américains.</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Annie Easley
 Cecile Hoover Edwards
 Scott V. Edwards (en)
 Eilaf Egap (en)
@@ -593,9 +746,43 @@
 Philip Emeagwali
 Anna Epps (en)
 Jeanette Epps
-Michele K. Evans (en)
-F
-Jack Felder (en)
+Michele K. Evans (en)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_de_scientifiques_et_inventeurs_afro-américains</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_scientifiques_et_inventeurs_afro-am%C3%A9ricains</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Liste alphabétique des scientifiques et inventeurs afro-américaines et afro-américains.</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Jack Felder (en)
 Lloyd Noel Ferguson (en)
 Evelyn J. Fields (en)
 Robert F. Flemming Jr. (en)
@@ -604,9 +791,43 @@
 Yvette Francis-McBarnette (en)
 Rhonda Franklin (en)
 Njema Frazier (en)
-A. Oveta Fuller (en)
-G
-Sylvester James Gates
+A. Oveta Fuller (en)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Liste_de_scientifiques_et_inventeurs_afro-américains</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_scientifiques_et_inventeurs_afro-am%C3%A9ricains</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Liste alphabétique des scientifiques et inventeurs afro-américaines et afro-américains.</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Sylvester James Gates
 Juan E. Gilbert (en)
 Gloria Ford Gilmer
 Mack Gipson (en)
@@ -618,9 +839,43 @@
 Hadiyah-Nicole Green
 Kevin Greenaugh (en)
 Willetta Greene-Johnson (en)
-Bettye Washington Greene
-H
-Betty Harris (scientist) (en)
+Bettye Washington Greene</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Liste_de_scientifiques_et_inventeurs_afro-américains</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_scientifiques_et_inventeurs_afro-am%C3%A9ricains</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Liste alphabétique des scientifiques et inventeurs afro-américaines et afro-américains.</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Betty Harris (scientist) (en)
 Kerry S. Harris (en)
 Mary Styles Harris (en)
 Michael C. Harvey (en)
@@ -635,13 +890,81 @@
 John E. Hodge (en)
 Kerrie Holley (en)
 John Hopps (en)
-Jacqueline Hughes-Oliver
-I
-Nia Imara (en)
+Jacqueline Hughes-Oliver</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Liste_de_scientifiques_et_inventeurs_afro-américains</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_scientifiques_et_inventeurs_afro-am%C3%A9ricains</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Liste alphabétique des scientifiques et inventeurs afro-américaines et afro-américains.</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Nia Imara (en)
 Charles Lee Isbell, Jr. (en)
-Jedidah Isler (en)
-J
-Deborah Jackson (en)
+Jedidah Isler (en)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Liste_de_scientifiques_et_inventeurs_afro-américains</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_scientifiques_et_inventeurs_afro-am%C3%A9ricains</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Liste alphabétique des scientifiques et inventeurs afro-américaines et afro-américains.</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Deborah Jackson (en)
 Fatimah Jackson (en)
 Mary Jackson
 Shirley Ann Jackson
@@ -662,17 +985,85 @@
 Marjorie Joyner (en)
 Anna Johnson Julian (en)
 Percy Lavon Julian
-Ernest Everett Just
-K
-Sinah Estelle Kelley (en)
+Ernest Everett Just</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Liste_de_scientifiques_et_inventeurs_afro-américains</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_scientifiques_et_inventeurs_afro-am%C3%A9ricains</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Liste alphabétique des scientifiques et inventeurs afro-américaines et afro-américains.</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Sinah Estelle Kelley (en)
 Mary Kenner
 Angie Turner King
 Ruth G. King (en)
 Rick Kittles (en)
 Genevieve M. Knight
-Lawrence H. Knox (en)
-L
-Cato T. Laurencin (en)
+Lawrence H. Knox (en)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Liste_de_scientifiques_et_inventeurs_afro-américains</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_scientifiques_et_inventeurs_afro-am%C3%A9ricains</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Liste alphabétique des scientifiques et inventeurs afro-américaines et afro-américains.</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Cato T. Laurencin (en)
 Lewis Howard Latimer
 Margaret Morgan Lawrence
 Jerry Lawson
@@ -683,9 +1074,43 @@
 Dawn Lott
 Frederick J. Loudin (en)
 Sophie Lutterlough (en)
-Beebe Steven Lynk (en)
-M
-Dorothy McFadden Hoover
+Beebe Steven Lynk (en)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Liste_de_scientifiques_et_inventeurs_afro-américains</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_scientifiques_et_inventeurs_afro-am%C3%A9ricains</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Liste alphabétique des scientifiques et inventeurs afro-américaines et afro-américains.</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Dorothy McFadden Hoover
 Iris Mack (en)
 Madam C.J. Walker
 Yvonne Maddox (en)
@@ -711,17 +1136,119 @@
 Warren F. (Pete) Miller Jr. (en)
 Ben Montgomery (en)
 Ruth Ella Moore (en)
-Garrett A. Morgan
-N
-National Society of Black Physicists
+Garrett A. Morgan</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Liste_de_scientifiques_et_inventeurs_afro-américains</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_scientifiques_et_inventeurs_afro-am%C3%A9ricains</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Liste alphabétique des scientifiques et inventeurs afro-américaines et afro-américains.</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>National Society of Black Physicists
 Homer Neal (en)
 Ann T. Nelms (en)
 Nawal M. Nour (en)
-Lyda D. Newman (en)
-O
-Olufunmilayo Olopade
-P
-Alice H. Parker (en)
+Lyda D. Newman (en)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Liste_de_scientifiques_et_inventeurs_afro-américains</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_scientifiques_et_inventeurs_afro-am%C3%A9ricains</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Liste alphabétique des scientifiques et inventeurs afro-américaines et afro-américains.</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Olufunmilayo Olopade</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Liste_de_scientifiques_et_inventeurs_afro-américains</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_scientifiques_et_inventeurs_afro-am%C3%A9ricains</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Liste alphabétique des scientifiques et inventeurs afro-américaines et afro-américains.</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Alice H. Parker (en)
 Carolyn Parker
 John P. Parker (en)
 Louis Pendleton (en)
@@ -737,11 +1264,79 @@
 Jessie Isabelle Price (en)
 Sian Proctor
 William B. Purvis (en)
-Ruby Puryear Hearn (en)
-Q
-Lloyd Quarterman (en)
-R
-Mary Logan Reddick (en)
+Ruby Puryear Hearn (en)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Liste_de_scientifiques_et_inventeurs_afro-américains</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_scientifiques_et_inventeurs_afro-am%C3%A9ricains</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Liste alphabétique des scientifiques et inventeurs afro-américaines et afro-américains.</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Lloyd Quarterman (en)</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Liste_de_scientifiques_et_inventeurs_afro-américains</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_scientifiques_et_inventeurs_afro-am%C3%A9ricains</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Liste alphabétique des scientifiques et inventeurs afro-américaines et afro-américains.</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Mary Logan Reddick (en)
 Judy W. Reed (en)
 Clarice Reid (en)
 Norbert Rillieux
@@ -750,9 +1345,43 @@
 Willie Rockward (en)
 Griffin P. Rodgers (en)
 Melba Roy Mouton
-Jesse Russell (en)
-S
-Henry Sampson
+Jesse Russell (en)</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Liste_de_scientifiques_et_inventeurs_afro-américains</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_scientifiques_et_inventeurs_afro-am%C3%A9ricains</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Liste alphabétique des scientifiques et inventeurs afro-américaines et afro-américains.</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Henry Sampson
 Cheryl L. Shavers (en)
 J. Marshall Shepherd (en)
 Milton Dean Slaughter (en)
@@ -760,21 +1389,123 @@
 Richard Spikes
 Lonnie Standifer (en)
 Adrienne Stiff-Roberts (en)
-James H. Stith (en)
-T
-Marie Taylor (en)
+James H. Stith (en)</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Liste_de_scientifiques_et_inventeurs_afro-américains</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_scientifiques_et_inventeurs_afro-am%C3%A9ricains</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Liste alphabétique des scientifiques et inventeurs afro-américaines et afro-américains.</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Marie Taylor (en)
 Kaya Thomas (en)
 Valerie Thomas
 Vivien Thomas
 Walter R. Tucker Jr. (en)
 Charles Henry Turner
 Madeline Turner (en)
-Neil deGrasse Tyson
-V
-Powtawche Valerino (en)
-Dorothy Vaughan
-W
-Arthur B. C. Walker Jr.
+Neil deGrasse Tyson</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Liste_de_scientifiques_et_inventeurs_afro-américains</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_scientifiques_et_inventeurs_afro-am%C3%A9ricains</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Liste alphabétique des scientifiques et inventeurs afro-américaines et afro-américains.</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Powtawche Valerino (en)
+Dorothy Vaughan</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Liste_de_scientifiques_et_inventeurs_afro-américains</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_scientifiques_et_inventeurs_afro-am%C3%A9ricains</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Liste alphabétique des scientifiques et inventeurs afro-américaines et afro-américains.</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Arthur B. C. Walker Jr.
 Erica N. Walker
 Chelsea Walton
 Jessica Ware
@@ -790,9 +1521,43 @@
 Reva Williams (en)
 Scott W. Williams (en)
 Joseph Winters (en)
-Granville Woods
-Y
-Roger Arliner Young</t>
+Granville Woods</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Liste_de_scientifiques_et_inventeurs_afro-américains</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_scientifiques_et_inventeurs_afro-am%C3%A9ricains</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Liste alphabétique des scientifiques et inventeurs afro-américaines et afro-américains.</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Roger Arliner Young</t>
         </is>
       </c>
     </row>
